--- a/data/georgia_census/kakheti/axmeta/age_dependency.xlsx
+++ b/data/georgia_census/kakheti/axmeta/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFFFD0D7-DEE0-415A-85E6-48268F377368}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{905CA9A2-EC89-43D0-8E97-7B205905294A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18388301-6F1F-474E-9BCB-14EAF8BD6E78}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E36B7839-337D-477D-A7A4-93CAF23E1CA2}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{761CAE88-DFD4-4A8D-909F-F56C6C2214AC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8CAC66C-0DF7-4953-94CA-2F6411E917C1}"/>
 </file>